--- a/src/main/resources/Excel用例模板.xlsx
+++ b/src/main/resources/Excel用例模板.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BaiduTest.searchTest" sheetId="1" r:id="rId1"/>
+    <sheet name="zqqtest" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
   <si>
     <t>keyword</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,6 +92,18 @@
   </si>
   <si>
     <t>用例编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈哈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -453,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -541,4 +554,94 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="12.75" customWidth="1"/>
+    <col min="4" max="4" width="15.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>